--- a/biology/Médecine/Anna_Stecksén/Anna_Stecksén.xlsx
+++ b/biology/Médecine/Anna_Stecksén/Anna_Stecksén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anna_Stecks%C3%A9n</t>
+          <t>Anna_Stecksén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Magdalena Stecksén, née le 27 mai 1870 à Stockholm et décédée le 15 octobre 1904 à Södertälje, était une scientifique et pathologiste suédoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anna_Stecks%C3%A9n</t>
+          <t>Anna_Stecksén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite-fille de Jonas Stecksén (sv) et fille du Major-général Johan Olof Billdau Stecksén (sv), Anna Stecksén obtient sa licence à l'Université d'Uppsala en 1890 puis étudie à l'Institut Karolinska. Elle se spécialise en pathologie et étudie à Tübingen en Allemagne et à Paris en 1898 et 1899. Elle devient docteur en médecine en 1900, avec une thèse étudiant le rôle de Saccharomyces cerevisiae dans l'apparition du cancer, une théorie répandue à l'époque. Bien que son étude ne puisse pas conclure sur le rôle de la levure, elle parvient à lever des fonds pour pousser ses recherches.
 Elle meurt d'une infection causée par ses études en laboratoire.
